--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf18-Tnfrsf18.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf18-Tnfrsf18.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7506253333333334</v>
+        <v>0.7506253333333333</v>
       </c>
       <c r="H2">
         <v>2.251876</v>
       </c>
       <c r="I2">
-        <v>0.5928186022610483</v>
+        <v>0.5569881999559233</v>
       </c>
       <c r="J2">
-        <v>0.5928186022610483</v>
+        <v>0.5569881999559233</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.041016333333333</v>
+        <v>1.114648666666667</v>
       </c>
       <c r="N2">
-        <v>3.123049</v>
+        <v>3.343946</v>
       </c>
       <c r="O2">
-        <v>0.3352332808110565</v>
+        <v>0.4003231847851749</v>
       </c>
       <c r="P2">
-        <v>0.3352332808110565</v>
+        <v>0.4003231847851748</v>
       </c>
       <c r="Q2">
-        <v>0.7814132322137778</v>
+        <v>0.8366835269662223</v>
       </c>
       <c r="R2">
-        <v>7.032719089924001</v>
+        <v>7.530151742696</v>
       </c>
       <c r="S2">
-        <v>0.198732524961796</v>
+        <v>0.222975290094117</v>
       </c>
       <c r="T2">
-        <v>0.198732524961796</v>
+        <v>0.222975290094117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7506253333333334</v>
+        <v>0.7506253333333333</v>
       </c>
       <c r="H3">
         <v>2.251876</v>
       </c>
       <c r="I3">
-        <v>0.5928186022610483</v>
+        <v>0.5569881999559233</v>
       </c>
       <c r="J3">
-        <v>0.5928186022610483</v>
+        <v>0.5569881999559233</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>2.564551</v>
       </c>
       <c r="O3">
-        <v>0.2752831753639714</v>
+        <v>0.3070172855255452</v>
       </c>
       <c r="P3">
-        <v>0.2752831753639715</v>
+        <v>0.3070172855255452</v>
       </c>
       <c r="Q3">
-        <v>0.6416723164084445</v>
+        <v>0.6416723164084444</v>
       </c>
       <c r="R3">
-        <v>5.775050847676</v>
+        <v>5.775050847675999</v>
       </c>
       <c r="S3">
-        <v>0.1631929872452526</v>
+        <v>0.1710050052202272</v>
       </c>
       <c r="T3">
-        <v>0.1631929872452526</v>
+        <v>0.1710050052202272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7506253333333334</v>
+        <v>0.7506253333333333</v>
       </c>
       <c r="H4">
         <v>2.251876</v>
       </c>
       <c r="I4">
-        <v>0.5928186022610483</v>
+        <v>0.5569881999559233</v>
       </c>
       <c r="J4">
-        <v>0.5928186022610483</v>
+        <v>0.5569881999559233</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.74035</v>
+        <v>0.716238</v>
       </c>
       <c r="N4">
-        <v>2.22105</v>
+        <v>2.148714</v>
       </c>
       <c r="O4">
-        <v>0.2384112059546286</v>
+        <v>0.2572350246303296</v>
       </c>
       <c r="P4">
-        <v>0.2384112059546286</v>
+        <v>0.2572350246303295</v>
       </c>
       <c r="Q4">
-        <v>0.5557254655333334</v>
+        <v>0.537626387496</v>
       </c>
       <c r="R4">
-        <v>5.0015291898</v>
+        <v>4.838637487463999</v>
       </c>
       <c r="S4">
-        <v>0.1413345978773939</v>
+        <v>0.1432768733344649</v>
       </c>
       <c r="T4">
-        <v>0.1413345978773939</v>
+        <v>0.1432768733344648</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7506253333333334</v>
+        <v>0.7506253333333333</v>
       </c>
       <c r="H5">
         <v>2.251876</v>
       </c>
       <c r="I5">
-        <v>0.5928186022610483</v>
+        <v>0.5569881999559233</v>
       </c>
       <c r="J5">
-        <v>0.5928186022610483</v>
+        <v>0.5569881999559233</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4691323333333333</v>
+        <v>0.09863499999999999</v>
       </c>
       <c r="N5">
-        <v>1.407397</v>
+        <v>0.295905</v>
       </c>
       <c r="O5">
-        <v>0.1510723378703435</v>
+        <v>0.03542450505895045</v>
       </c>
       <c r="P5">
-        <v>0.1510723378703435</v>
+        <v>0.03542450505895045</v>
       </c>
       <c r="Q5">
-        <v>0.3521426140857778</v>
+        <v>0.07403792975333331</v>
       </c>
       <c r="R5">
-        <v>3.169283526772</v>
+        <v>0.6663413677799999</v>
       </c>
       <c r="S5">
-        <v>0.08955849217660587</v>
+        <v>0.01973103130711431</v>
       </c>
       <c r="T5">
-        <v>0.08955849217660589</v>
+        <v>0.01973103130711431</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.515572</v>
+        <v>0.597025</v>
       </c>
       <c r="H6">
-        <v>1.546716</v>
+        <v>1.791075</v>
       </c>
       <c r="I6">
-        <v>0.4071813977389517</v>
+        <v>0.4430118000440768</v>
       </c>
       <c r="J6">
-        <v>0.4071813977389517</v>
+        <v>0.4430118000440768</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.041016333333333</v>
+        <v>1.114648666666667</v>
       </c>
       <c r="N6">
-        <v>3.123049</v>
+        <v>3.343946</v>
       </c>
       <c r="O6">
-        <v>0.3352332808110565</v>
+        <v>0.4003231847851749</v>
       </c>
       <c r="P6">
-        <v>0.3352332808110565</v>
+        <v>0.4003231847851748</v>
       </c>
       <c r="Q6">
-        <v>0.5367188730093334</v>
+        <v>0.6654731202166668</v>
       </c>
       <c r="R6">
-        <v>4.830469857084</v>
+        <v>5.98925808195</v>
       </c>
       <c r="S6">
-        <v>0.1365007558492605</v>
+        <v>0.1773478946910579</v>
       </c>
       <c r="T6">
-        <v>0.1365007558492605</v>
+        <v>0.1773478946910579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.515572</v>
+        <v>0.597025</v>
       </c>
       <c r="H7">
-        <v>1.546716</v>
+        <v>1.791075</v>
       </c>
       <c r="I7">
-        <v>0.4071813977389517</v>
+        <v>0.4430118000440768</v>
       </c>
       <c r="J7">
-        <v>0.4071813977389517</v>
+        <v>0.4430118000440768</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,22 +871,22 @@
         <v>2.564551</v>
       </c>
       <c r="O7">
-        <v>0.2752831753639714</v>
+        <v>0.3070172855255452</v>
       </c>
       <c r="P7">
-        <v>0.2752831753639715</v>
+        <v>0.3070172855255452</v>
       </c>
       <c r="Q7">
-        <v>0.4407368960573333</v>
+        <v>0.5103670202583334</v>
       </c>
       <c r="R7">
-        <v>3.966632064516</v>
+        <v>4.593303182324999</v>
       </c>
       <c r="S7">
-        <v>0.1120901881187188</v>
+        <v>0.1360122803053181</v>
       </c>
       <c r="T7">
-        <v>0.1120901881187188</v>
+        <v>0.136012280305318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.515572</v>
+        <v>0.597025</v>
       </c>
       <c r="H8">
-        <v>1.546716</v>
+        <v>1.791075</v>
       </c>
       <c r="I8">
-        <v>0.4071813977389517</v>
+        <v>0.4430118000440768</v>
       </c>
       <c r="J8">
-        <v>0.4071813977389517</v>
+        <v>0.4430118000440768</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.74035</v>
+        <v>0.716238</v>
       </c>
       <c r="N8">
-        <v>2.22105</v>
+        <v>2.148714</v>
       </c>
       <c r="O8">
-        <v>0.2384112059546286</v>
+        <v>0.2572350246303296</v>
       </c>
       <c r="P8">
-        <v>0.2384112059546286</v>
+        <v>0.2572350246303295</v>
       </c>
       <c r="Q8">
-        <v>0.3817037302</v>
+        <v>0.42761199195</v>
       </c>
       <c r="R8">
-        <v>3.4353335718</v>
+        <v>3.84850792755</v>
       </c>
       <c r="S8">
-        <v>0.09707660807723476</v>
+        <v>0.1139581512958648</v>
       </c>
       <c r="T8">
-        <v>0.09707660807723476</v>
+        <v>0.1139581512958647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.597025</v>
+      </c>
+      <c r="H9">
+        <v>1.791075</v>
+      </c>
+      <c r="I9">
+        <v>0.4430118000440768</v>
+      </c>
+      <c r="J9">
+        <v>0.4430118000440768</v>
+      </c>
+      <c r="K9">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>0.515572</v>
-      </c>
-      <c r="H9">
-        <v>1.546716</v>
-      </c>
-      <c r="I9">
-        <v>0.4071813977389517</v>
-      </c>
-      <c r="J9">
-        <v>0.4071813977389517</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.4691323333333333</v>
+        <v>0.09863499999999999</v>
       </c>
       <c r="N9">
-        <v>1.407397</v>
+        <v>0.295905</v>
       </c>
       <c r="O9">
-        <v>0.1510723378703435</v>
+        <v>0.03542450505895045</v>
       </c>
       <c r="P9">
-        <v>0.1510723378703435</v>
+        <v>0.03542450505895045</v>
       </c>
       <c r="Q9">
-        <v>0.2418714953613333</v>
+        <v>0.05888756087499999</v>
       </c>
       <c r="R9">
-        <v>2.176843458252</v>
+        <v>0.529988047875</v>
       </c>
       <c r="S9">
-        <v>0.06151384569373763</v>
+        <v>0.01569347375183614</v>
       </c>
       <c r="T9">
-        <v>0.06151384569373763</v>
+        <v>0.01569347375183614</v>
       </c>
     </row>
   </sheetData>
